--- a/results/descriptive stats/Descriptives_short.xlsx
+++ b/results/descriptive stats/Descriptives_short.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">commodity</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG</t>
   </si>
   <si>
     <t xml:space="preserve">NatGas</t>
@@ -566,40 +569,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1485</v>
+        <v>2.03214285714286</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2182</v>
+        <v>3.82</v>
       </c>
       <c r="D5" t="n">
-        <v>2.9610452173913</v>
+        <v>5.89</v>
       </c>
       <c r="E5" t="n">
-        <v>4.60880595238095</v>
+        <v>9.31</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6338095238095</v>
+        <v>20.4152380952381</v>
       </c>
       <c r="G5" t="n">
-        <v>3.73175208755461</v>
+        <v>7.56635965761206</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9610452173913</v>
+        <v>5.89</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>3.82</v>
       </c>
       <c r="J5" t="n">
-        <v>4.70623160999148</v>
+        <v>21.5680900557794</v>
       </c>
       <c r="K5" t="n">
-        <v>2.16938507646556</v>
+        <v>4.64414578321777</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66940234328062</v>
+        <v>1.1418799602947</v>
       </c>
       <c r="M5" t="n">
-        <v>6.35516703305269</v>
+        <v>3.23366500403931</v>
       </c>
     </row>
     <row r="6">
@@ -607,39 +610,80 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
+        <v>1.1485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.2182</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.9610452173913</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.60880595238095</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.6338095238095</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.73175208755461</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.9610452173913</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.70623160999148</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.16938507646556</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.66940234328062</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.35516703305269</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
         <v>11.31</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21.295</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>40.7306818181818</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>66.1479707792208</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>133.927142857143</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>47.5179032211879</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>40.7306818181818</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>18.01</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>829.06123992443</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>28.7934235533816</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L7" t="n">
         <v>0.736088010262019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>2.48378050173265</v>
       </c>
     </row>

--- a/results/descriptive stats/Descriptives_short.xlsx
+++ b/results/descriptive stats/Descriptives_short.xlsx
@@ -1,82 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/descriptive stats/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_E6BE5B88A9065264B77206C896D6B650AA1B92AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06EAE4B9-88B8-47B0-B39A-6595A7401E1E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">commodity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantile.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantile.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantile.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantile.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantile.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skewness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kurtosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NatGas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>quantile.0</t>
+  </si>
+  <si>
+    <t>quantile.25</t>
+  </si>
+  <si>
+    <t>quantile.50</t>
+  </si>
+  <si>
+    <t>quantile.75</t>
+  </si>
+  <si>
+    <t>quantile.100</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>APSP</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>NatGas</t>
+  </si>
+  <si>
+    <t>WTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -105,13 +115,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,14 +413,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,254 +468,530 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>10.41</v>
       </c>
-      <c r="C2" t="n">
-        <v>19.635</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.826204278813</v>
-      </c>
-      <c r="E2" t="n">
-        <v>68.1404761904762</v>
-      </c>
-      <c r="F2" t="n">
-        <v>133.00652173913</v>
-      </c>
-      <c r="G2" t="n">
-        <v>47.7767551217996</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40.826204278813</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="J2" t="n">
-        <v>955.266580419494</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30.9073871496685</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="C2">
+        <v>19.635000000000002</v>
+      </c>
+      <c r="D2">
+        <v>40.826204278813002</v>
+      </c>
+      <c r="E2">
+        <v>68.140476190476207</v>
+      </c>
+      <c r="F2">
+        <v>133.00652173912999</v>
+      </c>
+      <c r="G2">
+        <v>47.776755121799603</v>
+      </c>
+      <c r="H2">
+        <v>40.826204278813002</v>
+      </c>
+      <c r="I2">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="J2">
+        <v>955.26658041949395</v>
+      </c>
+      <c r="K2">
+        <v>30.907387149668502</v>
+      </c>
+      <c r="L2">
         <v>0.749420974011618</v>
       </c>
-      <c r="M2" t="n">
-        <v>2.41135363293332</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>2.4113536329333201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.9675</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.75033126294</v>
-      </c>
-      <c r="E3" t="n">
-        <v>68.9543231225296</v>
-      </c>
-      <c r="F3" t="n">
-        <v>133.899130434783</v>
-      </c>
-      <c r="G3" t="n">
-        <v>49.0336237291539</v>
-      </c>
-      <c r="H3" t="n">
-        <v>41.75033126294</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="B3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C3">
+        <v>19.967500000000001</v>
+      </c>
+      <c r="D3">
+        <v>41.750331262940001</v>
+      </c>
+      <c r="E3">
+        <v>68.954323122529601</v>
+      </c>
+      <c r="F3">
+        <v>133.89913043478299</v>
+      </c>
+      <c r="G3">
+        <v>49.033623729153902</v>
+      </c>
+      <c r="H3">
+        <v>41.750331262940001</v>
+      </c>
+      <c r="I3">
         <v>17.14</v>
       </c>
-      <c r="J3" t="n">
-        <v>1049.84326399941</v>
-      </c>
-      <c r="K3" t="n">
-        <v>32.4012849127841</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.775385831906849</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.45527067825956</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="J3">
+        <v>1049.8432639994101</v>
+      </c>
+      <c r="K3">
+        <v>32.401284912784099</v>
+      </c>
+      <c r="L3">
+        <v>0.77538583190684895</v>
+      </c>
+      <c r="M3">
+        <v>2.4552706782595601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.0657683982684</v>
-      </c>
-      <c r="E4" t="n">
-        <v>65.877417184265</v>
-      </c>
-      <c r="F4" t="n">
-        <v>131.224782608696</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C4">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D4">
+        <v>38.065768398268403</v>
+      </c>
+      <c r="E4">
+        <v>65.877417184264999</v>
+      </c>
+      <c r="F4">
+        <v>131.22478260869599</v>
+      </c>
+      <c r="G4">
         <v>46.7787918909928</v>
       </c>
-      <c r="H4" t="n">
-        <v>38.0657683982684</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>38.065768398268403</v>
+      </c>
+      <c r="I4">
         <v>17.57</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1008.54209334582</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>31.7575517530212</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.767799953333478</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.41684300907804</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="L4">
+        <v>0.76779995333347795</v>
+      </c>
+      <c r="M4">
+        <v>2.4168430090780402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
-        <v>2.03214285714286</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>2.0321428571428601</v>
+      </c>
+      <c r="C5">
         <v>3.82</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>5.89</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>9.31</v>
       </c>
-      <c r="F5" t="n">
-        <v>20.4152380952381</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.56635965761206</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="F5">
+        <v>20.415238095238099</v>
+      </c>
+      <c r="G5">
+        <v>7.5663596576120602</v>
+      </c>
+      <c r="H5">
         <v>5.89</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>3.82</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>21.5680900557794</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.64414578321777</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.1418799602947</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="K5">
+        <v>4.6441457832177697</v>
+      </c>
+      <c r="L5">
+        <v>1.1418799602947001</v>
+      </c>
+      <c r="M5">
         <v>3.23366500403931</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.1485</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.2182</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6">
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="C6">
+        <v>2.2181999999999999</v>
+      </c>
+      <c r="D6">
         <v>2.9610452173913</v>
       </c>
-      <c r="E6" t="n">
-        <v>4.60880595238095</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>4.6088059523809504</v>
+      </c>
+      <c r="F6">
         <v>13.6338095238095</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3.73175208755461</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2.9610452173913</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>1.43</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.70623160999148</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.16938507646556</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="J6">
+        <v>4.7062316099914803</v>
+      </c>
+      <c r="K6">
+        <v>2.1693850764655598</v>
+      </c>
+      <c r="L6">
         <v>1.66940234328062</v>
       </c>
-      <c r="M6" t="n">
-        <v>6.35516703305269</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="M6">
+        <v>6.3551670330526902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>11.31</v>
       </c>
-      <c r="C7" t="n">
-        <v>21.295</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>21.295000000000002</v>
+      </c>
+      <c r="D7">
         <v>40.7306818181818</v>
       </c>
-      <c r="E7" t="n">
-        <v>66.1479707792208</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>66.147970779220799</v>
+      </c>
+      <c r="F7">
         <v>133.927142857143</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>47.5179032211879</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>40.7306818181818</v>
       </c>
-      <c r="I7" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="J7" t="n">
-        <v>829.06123992443</v>
-      </c>
-      <c r="K7" t="n">
-        <v>28.7934235533816</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.736088010262019</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="I7">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="J7">
+        <v>829.06123992442997</v>
+      </c>
+      <c r="K7">
+        <v>28.793423553381601</v>
+      </c>
+      <c r="L7">
+        <v>0.73608801026201898</v>
+      </c>
+      <c r="M7">
+        <v>2.48378050173265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.41</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0321428571428601</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19.635000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19.967500000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.2181999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>21.295000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40.826204278813002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41.750331262940001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38.065768398268403</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.9610452173913</v>
+      </c>
+      <c r="G12" s="1">
+        <v>40.7306818181818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>68.140476190476207</v>
+      </c>
+      <c r="C13" s="1">
+        <v>68.954323122529601</v>
+      </c>
+      <c r="D13" s="1">
+        <v>65.877417184264999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.6088059523809504</v>
+      </c>
+      <c r="G13" s="1">
+        <v>66.147970779220799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>133.00652173912999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>133.89913043478299</v>
+      </c>
+      <c r="D14" s="1">
+        <v>131.22478260869599</v>
+      </c>
+      <c r="E14" s="1">
+        <v>20.415238095238099</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13.6338095238095</v>
+      </c>
+      <c r="G14" s="1">
+        <v>133.927142857143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>47.776755121799603</v>
+      </c>
+      <c r="C15" s="1">
+        <v>49.033623729153902</v>
+      </c>
+      <c r="D15" s="1">
+        <v>46.7787918909928</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.5663596576120602</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.73175208755461</v>
+      </c>
+      <c r="G15" s="1">
+        <v>47.5179032211879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17.14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>17.57</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="G16" s="1">
+        <v>18.010000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>955.26658041949395</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1049.8432639994101</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1008.54209334582</v>
+      </c>
+      <c r="E17" s="1">
+        <v>21.5680900557794</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.7062316099914803</v>
+      </c>
+      <c r="G17" s="1">
+        <v>829.06123992442997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>30.907387149668502</v>
+      </c>
+      <c r="C18" s="1">
+        <v>32.401284912784099</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31.7575517530212</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.6441457832177697</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.1693850764655598</v>
+      </c>
+      <c r="G18" s="1">
+        <v>28.793423553381601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.749420974011618</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.77538583190684895</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.76779995333347795</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.1418799602947001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.66940234328062</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.73608801026201898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.4113536329333201</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.4552706782595601</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.4168430090780402</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.23366500403931</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6.3551670330526902</v>
+      </c>
+      <c r="G20" s="1">
         <v>2.48378050173265</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/results/descriptive stats/Descriptives_short.xlsx
+++ b/results/descriptive stats/Descriptives_short.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/descriptive stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_E6BE5B88A9065264B77206C896D6B650AA1B92AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06EAE4B9-88B8-47B0-B39A-6595A7401E1E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_8E6ABA9F59C6566BAD0205B2C2B5BCE4AB1BE44B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C53D977-AF50-5E4B-996C-5975CE8298C1}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17760" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>commodity</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>sd</t>
+  </si>
+  <si>
+    <t>sd.perc</t>
   </si>
   <si>
     <t>skewness</t>
@@ -83,9 +86,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,12 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,20 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G20"/>
+      <selection activeCell="L10" sqref="L10:Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,10 +461,13 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>10.41</v>
@@ -503,15 +500,18 @@
         <v>30.907387149668502</v>
       </c>
       <c r="L2">
+        <v>0.64691264760184797</v>
+      </c>
+      <c r="M2">
         <v>0.749420974011618</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.4113536329333201</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>9.8000000000000007</v>
@@ -544,15 +544,18 @@
         <v>32.401284912784099</v>
       </c>
       <c r="L3">
+        <v>0.66079727437153202</v>
+      </c>
+      <c r="M3">
         <v>0.77538583190684895</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2.4552706782595601</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>10.050000000000001</v>
@@ -585,15 +588,18 @@
         <v>31.7575517530212</v>
       </c>
       <c r="L4">
+        <v>0.67888781367045203</v>
+      </c>
+      <c r="M4">
         <v>0.76779995333347795</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2.4168430090780402</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2.0321428571428601</v>
@@ -626,15 +632,18 @@
         <v>4.6441457832177697</v>
       </c>
       <c r="L5">
+        <v>0.61378866368658203</v>
+      </c>
+      <c r="M5">
         <v>1.1418799602947001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3.23366500403931</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1.1485000000000001</v>
@@ -667,15 +676,18 @@
         <v>2.1693850764655598</v>
       </c>
       <c r="L6">
+        <v>0.58133151012374595</v>
+      </c>
+      <c r="M6">
         <v>1.66940234328062</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6.3551670330526902</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>11.31</v>
@@ -708,285 +720,12 @@
         <v>28.793423553381601</v>
       </c>
       <c r="L7">
+        <v>0.60594894979589098</v>
+      </c>
+      <c r="M7">
         <v>0.73608801026201898</v>
       </c>
-      <c r="M7">
-        <v>2.48378050173265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10.41</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.0321428571428601</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.1485000000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>11.31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>19.635000000000002</v>
-      </c>
-      <c r="C11" s="1">
-        <v>19.967500000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.2181999999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>21.295000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>40.826204278813002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>41.750331262940001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>38.065768398268403</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5.89</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.9610452173913</v>
-      </c>
-      <c r="G12" s="1">
-        <v>40.7306818181818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>68.140476190476207</v>
-      </c>
-      <c r="C13" s="1">
-        <v>68.954323122529601</v>
-      </c>
-      <c r="D13" s="1">
-        <v>65.877417184264999</v>
-      </c>
-      <c r="E13" s="1">
-        <v>9.31</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4.6088059523809504</v>
-      </c>
-      <c r="G13" s="1">
-        <v>66.147970779220799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>133.00652173912999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>133.89913043478299</v>
-      </c>
-      <c r="D14" s="1">
-        <v>131.22478260869599</v>
-      </c>
-      <c r="E14" s="1">
-        <v>20.415238095238099</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13.6338095238095</v>
-      </c>
-      <c r="G14" s="1">
-        <v>133.927142857143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>47.776755121799603</v>
-      </c>
-      <c r="C15" s="1">
-        <v>49.033623729153902</v>
-      </c>
-      <c r="D15" s="1">
-        <v>46.7787918909928</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7.5663596576120602</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3.73175208755461</v>
-      </c>
-      <c r="G15" s="1">
-        <v>47.5179032211879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>17.14</v>
-      </c>
-      <c r="D16" s="1">
-        <v>17.57</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="G16" s="1">
-        <v>18.010000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1">
-        <v>955.26658041949395</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1049.8432639994101</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1008.54209334582</v>
-      </c>
-      <c r="E17" s="1">
-        <v>21.5680900557794</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4.7062316099914803</v>
-      </c>
-      <c r="G17" s="1">
-        <v>829.06123992442997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1">
-        <v>30.907387149668502</v>
-      </c>
-      <c r="C18" s="1">
-        <v>32.401284912784099</v>
-      </c>
-      <c r="D18" s="1">
-        <v>31.7575517530212</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4.6441457832177697</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2.1693850764655598</v>
-      </c>
-      <c r="G18" s="1">
-        <v>28.793423553381601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.749420974011618</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.77538583190684895</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.76779995333347795</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.1418799602947001</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.66940234328062</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.73608801026201898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.4113536329333201</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.4552706782595601</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.4168430090780402</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3.23366500403931</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6.3551670330526902</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="N7">
         <v>2.48378050173265</v>
       </c>
     </row>
